--- a/Excel/templates/LCF CTRL DEF FT TestSuite.xlsx
+++ b/Excel/templates/LCF CTRL DEF FT TestSuite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\METCUT50066\www\Metcut\Excel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\Metcut\Excel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">FTLCFDEF!$A$1:$K$69</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="105">
   <si>
     <t>DONNEES EPROUVETTE</t>
   </si>
@@ -384,13 +384,17 @@
   <si>
     <t>FICHE TECHNIQUE LCF CONTROLE DEFORMATION</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0##"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1300,6 +1304,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1325,67 +1385,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
@@ -2062,8 +2066,8 @@
   </sheetPr>
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J47" activeCellId="1" sqref="K20 J47"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2091,20 +2095,20 @@
     </row>
     <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="150"/>
-      <c r="H5" s="148" t="s">
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="164"/>
+      <c r="H5" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="150"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="164"/>
     </row>
     <row r="6" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
@@ -2122,7 +2126,9 @@
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="117"/>
+      <c r="B7" s="117" t="s">
+        <v>104</v>
+      </c>
       <c r="C7" s="122"/>
       <c r="D7" s="122"/>
       <c r="E7" s="122"/>
@@ -2130,7 +2136,9 @@
       <c r="H7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="117"/>
+      <c r="I7" s="117" t="s">
+        <v>104</v>
+      </c>
       <c r="J7" s="117"/>
       <c r="K7" s="118"/>
     </row>
@@ -2138,7 +2146,9 @@
       <c r="A8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="119"/>
+      <c r="B8" s="119" t="s">
+        <v>104</v>
+      </c>
       <c r="C8" s="124"/>
       <c r="D8" s="124"/>
       <c r="E8" s="124"/>
@@ -2146,7 +2156,9 @@
       <c r="H8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="119"/>
+      <c r="I8" s="119" t="s">
+        <v>104</v>
+      </c>
       <c r="J8" s="120"/>
       <c r="K8" s="121"/>
     </row>
@@ -2154,7 +2166,9 @@
       <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="119"/>
+      <c r="B9" s="119" t="s">
+        <v>104</v>
+      </c>
       <c r="C9" s="124"/>
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
@@ -2162,7 +2176,9 @@
       <c r="H9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="119"/>
+      <c r="I9" s="119" t="s">
+        <v>104</v>
+      </c>
       <c r="J9" s="120"/>
       <c r="K9" s="121"/>
     </row>
@@ -2176,7 +2192,9 @@
       <c r="H10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="117"/>
+      <c r="I10" s="117" t="s">
+        <v>104</v>
+      </c>
       <c r="J10" s="8" t="s">
         <v>6</v>
       </c>
@@ -2186,23 +2204,27 @@
       <c r="H11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="117"/>
+      <c r="I11" s="117" t="s">
+        <v>104</v>
+      </c>
       <c r="J11" s="117"/>
       <c r="K11" s="118"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
       <c r="F12" s="10"/>
       <c r="H12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="119"/>
+      <c r="I12" s="119" t="s">
+        <v>104</v>
+      </c>
       <c r="J12" s="120"/>
       <c r="K12" s="121"/>
     </row>
@@ -2222,7 +2244,9 @@
       <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="117"/>
+      <c r="B14" s="117" t="s">
+        <v>104</v>
+      </c>
       <c r="C14" s="27"/>
       <c r="D14" s="5" t="s">
         <v>62</v>
@@ -2241,39 +2265,49 @@
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="117"/>
+      <c r="B15" s="117" t="s">
+        <v>104</v>
+      </c>
       <c r="C15" s="27"/>
       <c r="D15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="118"/>
-      <c r="H15" s="148" t="s">
+      <c r="F15" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="150"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="164"/>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="117"/>
+      <c r="B16" s="117" t="s">
+        <v>104</v>
+      </c>
       <c r="C16" s="27"/>
       <c r="D16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="127"/>
+      <c r="F16" s="127" t="s">
+        <v>104</v>
+      </c>
       <c r="H16" s="15" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="130"/>
+      <c r="J16" s="130" t="s">
+        <v>104</v>
+      </c>
       <c r="K16" s="131"/>
       <c r="N16" s="5"/>
     </row>
@@ -2281,18 +2315,24 @@
       <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="117"/>
+      <c r="B17" s="117" t="s">
+        <v>104</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="127"/>
+      <c r="F17" s="127" t="s">
+        <v>104</v>
+      </c>
       <c r="H17" s="15"/>
       <c r="I17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="132"/>
+      <c r="J17" s="132" t="s">
+        <v>104</v>
+      </c>
       <c r="K17" s="133"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2335,25 +2375,29 @@
       <c r="J20" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="171"/>
+      <c r="K20" s="160"/>
     </row>
     <row r="21" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="150"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="164"/>
       <c r="H21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="164"/>
+      <c r="I21" s="172" t="s">
+        <v>104</v>
+      </c>
       <c r="J21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="163"/>
+      <c r="K21" s="171" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
@@ -2364,17 +2408,23 @@
       <c r="H22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="119"/>
+      <c r="I22" s="119" t="s">
+        <v>104</v>
+      </c>
       <c r="J22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="127"/>
+      <c r="K22" s="127" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="117"/>
+      <c r="B23" s="117" t="s">
+        <v>104</v>
+      </c>
       <c r="C23" s="21"/>
       <c r="D23" s="16" t="s">
         <v>96</v>
@@ -2395,7 +2445,9 @@
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="119"/>
+      <c r="B24" s="119" t="s">
+        <v>104</v>
+      </c>
       <c r="C24" s="21"/>
       <c r="D24" s="16" t="s">
         <v>96</v>
@@ -2407,14 +2459,18 @@
         <v>65</v>
       </c>
       <c r="I24" s="43"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="166"/>
+      <c r="J24" s="158" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="155"/>
     </row>
     <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="119"/>
+      <c r="B25" s="119" t="s">
+        <v>104</v>
+      </c>
       <c r="C25" s="21"/>
       <c r="D25" s="16" t="s">
         <v>96</v>
@@ -2426,8 +2482,10 @@
         <v>66</v>
       </c>
       <c r="I25" s="43"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="168"/>
+      <c r="J25" s="156" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" s="157"/>
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
@@ -2438,8 +2496,10 @@
         <v>67</v>
       </c>
       <c r="I26" s="43"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="168"/>
+      <c r="J26" s="156" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="157"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -2456,17 +2516,21 @@
         <v>68</v>
       </c>
       <c r="I27" s="43"/>
-      <c r="J27" s="170"/>
+      <c r="J27" s="159"/>
       <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="157"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="157"/>
+      <c r="B28" s="148" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="149"/>
+      <c r="D28" s="150" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="148"/>
       <c r="F28" s="17"/>
       <c r="H28" s="3"/>
       <c r="I28" s="7"/>
@@ -2490,24 +2554,32 @@
         <v>70</v>
       </c>
       <c r="I29" s="43"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="166"/>
+      <c r="J29" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="155"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="160"/>
+      <c r="B30" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="152"/>
+      <c r="D30" s="153" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="151"/>
       <c r="F30" s="17"/>
       <c r="H30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="43"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="168"/>
+      <c r="J30" s="156" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" s="157"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -2520,8 +2592,10 @@
         <v>16</v>
       </c>
       <c r="I31" s="43"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="168"/>
+      <c r="J31" s="156" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" s="157"/>
     </row>
     <row r="32" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
@@ -2549,10 +2623,10 @@
       <c r="K33" s="34"/>
     </row>
     <row r="34" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="153" t="s">
+      <c r="A34" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="154"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="33"/>
       <c r="D34" s="110"/>
       <c r="E34" s="103" t="s">
@@ -2756,7 +2830,9 @@
       <c r="A45" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="136"/>
+      <c r="B45" s="136" t="s">
+        <v>104</v>
+      </c>
       <c r="C45" s="96"/>
       <c r="D45" s="56" t="s">
         <v>80</v>
@@ -2781,7 +2857,9 @@
       <c r="A46" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="120"/>
+      <c r="B46" s="120" t="s">
+        <v>104</v>
+      </c>
       <c r="C46" s="58" t="s">
         <v>76</v>
       </c>
@@ -2818,7 +2896,7 @@
       <c r="I47" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="J47" s="172"/>
+      <c r="J47" s="161"/>
       <c r="K47" s="60"/>
     </row>
     <row r="48" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -2958,10 +3036,10 @@
       <c r="G54" s="101"/>
       <c r="H54" s="101"/>
       <c r="I54" s="102"/>
-      <c r="J54" s="155" t="s">
+      <c r="J54" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="K54" s="156"/>
+      <c r="K54" s="170"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
@@ -2995,7 +3073,9 @@
       </c>
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
-      <c r="J56" s="143"/>
+      <c r="J56" s="143" t="s">
+        <v>104</v>
+      </c>
       <c r="K56" s="144"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -3044,7 +3124,9 @@
       <c r="G59" s="16"/>
       <c r="H59" s="130"/>
       <c r="I59" s="16"/>
-      <c r="J59" s="143"/>
+      <c r="J59" s="143" t="s">
+        <v>104</v>
+      </c>
       <c r="K59" s="145"/>
     </row>
     <row r="60" spans="1:11" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3057,8 +3139,8 @@
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
-      <c r="J60" s="151"/>
-      <c r="K60" s="152"/>
+      <c r="J60" s="165"/>
+      <c r="K60" s="166"/>
     </row>
     <row r="61" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">

--- a/Excel/templates/LCF CTRL DEF FT TestSuite.xlsx
+++ b/Excel/templates/LCF CTRL DEF FT TestSuite.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\Metcut\Excel\templates\"/>
@@ -392,9 +392,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0##"/>
+    <numFmt numFmtId="166" formatCode="###\ ###\ ###\ ###\ ###\ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1289,9 +1290,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1357,6 +1355,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
@@ -1385,13 +1391,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2061,13 +2062,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Feuil1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J59" activeCellId="1" sqref="J56 J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2095,20 +2096,20 @@
     </row>
     <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="164"/>
-      <c r="H5" s="162" t="s">
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="165"/>
+      <c r="H5" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
@@ -2211,13 +2212,13 @@
       <c r="K11" s="118"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
       <c r="F12" s="10"/>
       <c r="H12" s="15" t="s">
         <v>8</v>
@@ -2276,12 +2277,12 @@
       <c r="F15" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="162" t="s">
+      <c r="H15" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="165"/>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2375,27 +2376,27 @@
       <c r="J20" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="160"/>
+      <c r="K20" s="159"/>
     </row>
     <row r="21" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162" t="s">
+      <c r="A21" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="164"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="165"/>
       <c r="H21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="172" t="s">
+      <c r="I21" s="162" t="s">
         <v>104</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="171" t="s">
+      <c r="K21" s="161" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2459,10 +2460,10 @@
         <v>65</v>
       </c>
       <c r="I24" s="43"/>
-      <c r="J24" s="158" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="155"/>
+      <c r="J24" s="157" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="154"/>
     </row>
     <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
@@ -2482,10 +2483,10 @@
         <v>66</v>
       </c>
       <c r="I25" s="43"/>
-      <c r="J25" s="156" t="s">
-        <v>104</v>
-      </c>
-      <c r="K25" s="157"/>
+      <c r="J25" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" s="156"/>
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
@@ -2496,10 +2497,10 @@
         <v>67</v>
       </c>
       <c r="I26" s="43"/>
-      <c r="J26" s="156" t="s">
-        <v>104</v>
-      </c>
-      <c r="K26" s="157"/>
+      <c r="J26" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -2516,21 +2517,21 @@
         <v>68</v>
       </c>
       <c r="I27" s="43"/>
-      <c r="J27" s="159"/>
+      <c r="J27" s="158"/>
       <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="148" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="150" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="148"/>
+      <c r="B28" s="147" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="149" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="147"/>
       <c r="F28" s="17"/>
       <c r="H28" s="3"/>
       <c r="I28" s="7"/>
@@ -2554,32 +2555,32 @@
         <v>70</v>
       </c>
       <c r="I29" s="43"/>
-      <c r="J29" s="154" t="s">
-        <v>104</v>
-      </c>
-      <c r="K29" s="155"/>
+      <c r="J29" s="153" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="154"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="151" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="152"/>
-      <c r="D30" s="153" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="151"/>
+      <c r="B30" s="150" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="151"/>
+      <c r="D30" s="152" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="150"/>
       <c r="F30" s="17"/>
       <c r="H30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="43"/>
-      <c r="J30" s="156" t="s">
-        <v>104</v>
-      </c>
-      <c r="K30" s="157"/>
+      <c r="J30" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" s="156"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -2592,10 +2593,10 @@
         <v>16</v>
       </c>
       <c r="I31" s="43"/>
-      <c r="J31" s="156" t="s">
-        <v>104</v>
-      </c>
-      <c r="K31" s="157"/>
+      <c r="J31" s="155" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" s="156"/>
     </row>
     <row r="32" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
@@ -2623,10 +2624,10 @@
       <c r="K33" s="34"/>
     </row>
     <row r="34" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="167" t="s">
+      <c r="A34" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="168"/>
+      <c r="B34" s="169"/>
       <c r="C34" s="33"/>
       <c r="D34" s="110"/>
       <c r="E34" s="103" t="s">
@@ -2896,7 +2897,7 @@
       <c r="I47" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="J47" s="161"/>
+      <c r="J47" s="160"/>
       <c r="K47" s="60"/>
     </row>
     <row r="48" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -3036,16 +3037,16 @@
       <c r="G54" s="101"/>
       <c r="H54" s="101"/>
       <c r="I54" s="102"/>
-      <c r="J54" s="169" t="s">
+      <c r="J54" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="K54" s="170"/>
+      <c r="K54" s="171"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="147"/>
+      <c r="B55" s="146"/>
       <c r="C55" s="16"/>
       <c r="E55" s="6" t="s">
         <v>57</v>
@@ -3055,7 +3056,7 @@
         <v>41</v>
       </c>
       <c r="H55" s="16"/>
-      <c r="I55" s="146"/>
+      <c r="I55" s="145"/>
       <c r="J55" s="31" t="s">
         <v>37</v>
       </c>
@@ -3073,10 +3074,10 @@
       </c>
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
-      <c r="J56" s="143" t="s">
-        <v>104</v>
-      </c>
-      <c r="K56" s="144"/>
+      <c r="J56" s="172" t="s">
+        <v>104</v>
+      </c>
+      <c r="K56" s="143"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
@@ -3124,10 +3125,10 @@
       <c r="G59" s="16"/>
       <c r="H59" s="130"/>
       <c r="I59" s="16"/>
-      <c r="J59" s="143" t="s">
-        <v>104</v>
-      </c>
-      <c r="K59" s="145"/>
+      <c r="J59" s="172" t="s">
+        <v>104</v>
+      </c>
+      <c r="K59" s="144"/>
     </row>
     <row r="60" spans="1:11" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
@@ -3139,8 +3140,8 @@
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
-      <c r="J60" s="165"/>
-      <c r="K60" s="166"/>
+      <c r="J60" s="166"/>
+      <c r="K60" s="167"/>
     </row>
     <row r="61" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">

--- a/Excel/templates/LCF CTRL DEF FT TestSuite.xlsx
+++ b/Excel/templates/LCF CTRL DEF FT TestSuite.xlsx
@@ -392,10 +392,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0##"/>
     <numFmt numFmtId="166" formatCode="###\ ###\ ###\ ###\ ###\ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1350,19 +1351,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
@@ -1390,9 +1394,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2067,8 +2068,8 @@
   </sheetPr>
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J59" activeCellId="1" sqref="J56 J59"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2096,20 +2097,20 @@
     </row>
     <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="165"/>
-      <c r="H5" s="163" t="s">
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="166"/>
+      <c r="H5" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="166"/>
     </row>
     <row r="6" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
@@ -2212,13 +2213,13 @@
       <c r="K11" s="118"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
       <c r="F12" s="10"/>
       <c r="H12" s="15" t="s">
         <v>8</v>
@@ -2277,12 +2278,12 @@
       <c r="F15" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="163" t="s">
+      <c r="H15" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="166"/>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2376,27 +2377,27 @@
       <c r="J20" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="159"/>
+      <c r="K20" s="162"/>
     </row>
     <row r="21" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="163" t="s">
+      <c r="A21" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="165"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="166"/>
       <c r="H21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="162" t="s">
+      <c r="I21" s="160" t="s">
         <v>104</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="161" t="s">
+      <c r="K21" s="159" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2624,10 +2625,10 @@
       <c r="K33" s="34"/>
     </row>
     <row r="34" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="168" t="s">
+      <c r="A34" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="169"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="33"/>
       <c r="D34" s="110"/>
       <c r="E34" s="103" t="s">
@@ -2897,7 +2898,10 @@
       <c r="I47" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="J47" s="160"/>
+      <c r="J47" s="163" t="str">
+        <f>IF(K20="","",K20)</f>
+        <v/>
+      </c>
       <c r="K47" s="60"/>
     </row>
     <row r="48" spans="1:19" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -3037,10 +3041,10 @@
       <c r="G54" s="101"/>
       <c r="H54" s="101"/>
       <c r="I54" s="102"/>
-      <c r="J54" s="170" t="s">
+      <c r="J54" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="K54" s="171"/>
+      <c r="K54" s="172"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
@@ -3074,7 +3078,7 @@
       </c>
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
-      <c r="J56" s="172" t="s">
+      <c r="J56" s="161" t="s">
         <v>104</v>
       </c>
       <c r="K56" s="143"/>
@@ -3125,7 +3129,7 @@
       <c r="G59" s="16"/>
       <c r="H59" s="130"/>
       <c r="I59" s="16"/>
-      <c r="J59" s="172" t="s">
+      <c r="J59" s="161" t="s">
         <v>104</v>
       </c>
       <c r="K59" s="144"/>
@@ -3140,8 +3144,8 @@
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
-      <c r="J60" s="166"/>
-      <c r="K60" s="167"/>
+      <c r="J60" s="167"/>
+      <c r="K60" s="168"/>
     </row>
     <row r="61" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
